--- a/timetabling_GA/results/PS_CT001_HK1/LichHocKy_PS_CT001_HK1.xlsx
+++ b/timetabling_GA/results/PS_CT001_HK1/LichHocKy_PS_CT001_HK1.xlsx
@@ -626,7 +626,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -641,14 +641,21 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -667,16 +674,16 @@
         <is>
           <t>MH002
 (Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
 Room: LT3
 Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
         </is>
       </c>
       <c r="J9" s="7" t="inlineStr"/>
@@ -809,7 +816,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -821,15 +828,15 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -838,7 +845,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -857,11 +864,18 @@
         <is>
           <t>MH002
 (Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
 Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10"/>
@@ -992,7 +1006,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1004,15 +1018,15 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1021,7 +1035,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1040,11 +1054,18 @@
         <is>
           <t>MH002
 (Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
 Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10"/>
@@ -1175,7 +1196,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1187,15 +1208,15 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1204,7 +1225,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1223,11 +1244,18 @@
         <is>
           <t>MH002
 (Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
 Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10"/>
@@ -1358,7 +1386,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1370,15 +1398,15 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1387,7 +1415,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1406,11 +1434,18 @@
         <is>
           <t>MH002
 (Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
 Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10"/>
@@ -1541,7 +1576,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1553,15 +1588,15 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1570,7 +1605,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1589,11 +1624,18 @@
         <is>
           <t>MH002
 (Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
 Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10"/>
@@ -1724,7 +1766,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1736,15 +1778,15 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -1753,7 +1795,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -1772,11 +1814,18 @@
         <is>
           <t>MH002
 (Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
 Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10"/>
@@ -1907,7 +1956,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1919,15 +1968,15 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
@@ -2061,7 +2110,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2073,31 +2122,31 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH2
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="7" t="inlineStr"/>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2110,23 +2159,23 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2137,25 +2186,25 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH2
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -2174,18 +2223,11 @@
         <is>
           <t>MH002
 (Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
+Room: TH3
 Lecturer: GV008</t>
         </is>
       </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
@@ -2203,18 +2245,25 @@
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13"/>
@@ -2235,7 +2284,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2345,7 +2394,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2357,13 +2406,20 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr"/>
@@ -2374,7 +2430,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -2385,25 +2441,32 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH3
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: TH1
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2422,79 +2485,21 @@
         <is>
           <t>MH002
 (Theory)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+    <row r="11"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -2635,17 +2640,24 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
@@ -2663,17 +2675,24 @@
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH2
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
@@ -2691,26 +2710,19 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
@@ -2728,18 +2740,25 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12"/>
@@ -2755,261 +2774,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 5 TIMETABLE (08/09/2025 - 14/09/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-08/09</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-09/09</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-10/09</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-11/09</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-12/09</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-13/09</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-14/09</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C1</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3059,7 +2823,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 6 TIMETABLE (15/09/2025 - 21/09/2025)</t>
+          <t>WEEK 5 TIMETABLE (08/09/2025 - 14/09/2025)</t>
         </is>
       </c>
     </row>
@@ -3082,50 +2846,50 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-15/09</t>
+08/09</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-16/09</t>
+09/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-17/09</t>
+10/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-18/09</t>
+11/09</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-19/09</t>
+12/09</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-20/09</t>
+13/09</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-21/09</t>
+14/09</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3137,13 +2901,20 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH3
-Lecturer: GV001</t>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr"/>
@@ -3155,6 +2926,239 @@
       <c r="A9" s="6" t="inlineStr">
         <is>
           <t>S2</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
+    <col width="25" customWidth="1" min="5" max="5"/>
+    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="25" customWidth="1" min="7" max="7"/>
+    <col width="25" customWidth="1" min="8" max="8"/>
+    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="25" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>WEEK 6 TIMETABLE (15/09/2025 - 21/09/2025)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>Time Slot</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="inlineStr">
+        <is>
+          <t>Students</t>
+        </is>
+      </c>
+      <c r="D7" s="5" t="inlineStr">
+        <is>
+          <t>Monday
+15/09</t>
+        </is>
+      </c>
+      <c r="E7" s="5" t="inlineStr">
+        <is>
+          <t>Tuesday
+16/09</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>Wednesday
+17/09</t>
+        </is>
+      </c>
+      <c r="G7" s="5" t="inlineStr">
+        <is>
+          <t>Thursday
+18/09</t>
+        </is>
+      </c>
+      <c r="H7" s="5" t="inlineStr">
+        <is>
+          <t>Friday
+19/09</t>
+        </is>
+      </c>
+      <c r="I7" s="5" t="inlineStr">
+        <is>
+          <t>Saturday
+20/09</t>
+        </is>
+      </c>
+      <c r="J7" s="5" t="inlineStr">
+        <is>
+          <t>Sunday
+21/09</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="7" t="inlineStr"/>
+      <c r="J8" s="7" t="inlineStr"/>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3173,57 +3177,115 @@
         <is>
           <t>MH002
 (Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH002
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: TH2
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH001
 (Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
 Room: TH1
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L1</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:J1"/>
@@ -3351,7 +3413,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3363,13 +3425,20 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr"/>
@@ -3391,26 +3460,19 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3428,18 +3490,25 @@
         <v>30</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11"/>
@@ -3570,7 +3639,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3582,13 +3651,20 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
 Room: TH1
-Lecturer: GV001</t>
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr"/>
@@ -3599,7 +3675,7 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
@@ -3614,21 +3690,21 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -3639,16 +3715,16 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
@@ -3657,7 +3733,7 @@
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B11" s="7" t="inlineStr">
@@ -3672,19 +3748,12 @@
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: TH2
 Lecturer: GV008</t>
         </is>
       </c>
@@ -3705,18 +3774,25 @@
         <v>30</v>
       </c>
       <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13"/>
@@ -3847,7 +3923,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -3859,13 +3935,20 @@
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F8" s="9" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr"/>
@@ -3887,7 +3970,14 @@
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="7" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
@@ -3895,8 +3985,8 @@
         <is>
           <t>MH002
 (Theory)
-Room: LT3
-Lecturer: GV001</t>
+Room: TH1
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="I9" s="7" t="inlineStr"/>
@@ -3917,18 +4007,25 @@
         <v>30</v>
       </c>
       <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11"/>

--- a/timetabling_GA/results/PS_CT001_HK1/LichHocKy_PS_CT001_HK1.xlsx
+++ b/timetabling_GA/results/PS_CT001_HK1/LichHocKy_PS_CT001_HK1.xlsx
@@ -22,7 +22,6 @@
     <sheet name="Week_13" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="Week_14" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="Week_15" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Week_16" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -96,7 +95,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -118,11 +117,44 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -516,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,12 +659,12 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -641,60 +674,348 @@
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="H8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="9" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -706,7 +1027,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -816,41 +1137,41 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -862,29 +1183,149 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
           <t>MH002
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -896,7 +1337,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,41 +1447,41 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -1052,29 +1493,149 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
           <t>MH002
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1086,7 +1647,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1196,41 +1757,41 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -1242,29 +1803,149 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
           <t>MH002
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1276,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1386,41 +2067,41 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -1432,29 +2113,149 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
           <t>MH002
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1466,7 +2267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1576,41 +2377,41 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -1622,29 +2423,149 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
           <t>MH002
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1656,7 +2577,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1766,41 +2687,41 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -1812,41 +2733,161 @@
       <c r="G9" s="7" t="inlineStr"/>
       <c r="H9" s="8" t="inlineStr">
         <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
           <t>MH002
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1890,7 +2931,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 16 TIMETABLE (24/11/2025 - 30/11/2025)</t>
+          <t>WEEK 2 TIMETABLE (18/08/2025 - 24/08/2025)</t>
         </is>
       </c>
     </row>
@@ -1913,94 +2954,418 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-24/11</t>
+18/08</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-25/11</t>
+19/08</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-26/11</t>
+20/08</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-27/11</t>
+21/08</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-28/11</t>
+22/08</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-29/11</t>
+23/08</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-30/11</t>
+24/08</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
-    <row r="9"/>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="9" t="n"/>
+      <c r="B9" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2044,7 +3409,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 2 TIMETABLE (18/08/2025 - 24/08/2025)</t>
+          <t>WEEK 3 TIMETABLE (25/08/2025 - 31/08/2025)</t>
         </is>
       </c>
     </row>
@@ -2067,126 +3432,87 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-18/08</t>
+25/08</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-19/08</t>
+26/08</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-20/08</t>
+27/08</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-21/08</t>
+28/08</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-22/08</t>
+29/08</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-23/08</t>
+30/08</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-24/08</t>
+31/08</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>MH001
 (Practice)
@@ -2194,22 +3520,60 @@
 Lecturer: GV001</t>
         </is>
       </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -2221,10 +3585,10 @@
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>MH002
-(Theory)
-Room: TH3
-Lecturer: GV008</t>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="I11" s="7" t="inlineStr"/>
@@ -2233,58 +3597,234 @@
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr">
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2328,7 +3868,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 3 TIMETABLE (25/08/2025 - 31/08/2025)</t>
+          <t>WEEK 4 TIMETABLE (01/09/2025 - 07/09/2025)</t>
         </is>
       </c>
     </row>
@@ -2351,97 +3891,94 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-25/08</t>
+01/09</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-26/08</t>
+02/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-27/08</t>
+03/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-28/08</t>
+04/09</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-29/08</t>
+05/09</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-30/08</t>
+06/09</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-31/08</t>
+07/09</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>MH001
 (Practice)
@@ -2449,15 +3986,14 @@
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH1
-Lecturer: GV008</t>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="I9" s="7" t="inlineStr"/>
@@ -2466,12 +4002,12 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -2480,8 +4016,96 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
@@ -2489,35 +4113,144 @@
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr">
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2561,7 +4294,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 4 TIMETABLE (01/09/2025 - 07/09/2025)</t>
+          <t>WEEK 5 TIMETABLE (08/09/2025 - 14/09/2025)</t>
         </is>
       </c>
     </row>
@@ -2584,43 +4317,43 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-01/09</t>
+08/09</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-02/09</t>
+09/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-03/09</t>
+10/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-04/09</t>
+11/09</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-05/09</t>
+12/09</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-06/09</t>
+13/09</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-07/09</t>
+14/09</t>
         </is>
       </c>
     </row>
@@ -2632,7 +4365,7 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
@@ -2640,35 +4373,31 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH002
-(Theory)
-Room: TH1
-Lecturer: GV008</t>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -2677,63 +4406,59 @@
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="9" t="inlineStr">
-        <is>
-          <t>MH002
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH009
 (Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -2745,41 +4470,258 @@
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr">
         <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
           <t>MH002
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="8" t="inlineStr">
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2823,7 +4765,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 5 TIMETABLE (08/09/2025 - 14/09/2025)</t>
+          <t>WEEK 6 TIMETABLE (15/09/2025 - 21/09/2025)</t>
         </is>
       </c>
     </row>
@@ -2846,74 +4788,67 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-08/09</t>
+15/09</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-09/09</t>
+16/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-10/09</t>
+17/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-11/09</t>
+18/09</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-12/09</t>
+19/09</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-13/09</t>
+20/09</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-14/09</t>
+21/09</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
 Lecturer: GV008</t>
         </is>
       </c>
@@ -2923,20 +4858,17 @@
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>MH001
 (Practice)
@@ -2944,16 +4876,22 @@
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="I9" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
-Room: TH2
-Lecturer: GV001</t>
+Room: LT3
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="J9" s="7" t="inlineStr"/>
@@ -2961,12 +4899,12 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -2975,44 +4913,248 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="8" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3056,7 +5198,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 6 TIMETABLE (15/09/2025 - 21/09/2025)</t>
+          <t>WEEK 7 TIMETABLE (22/09/2025 - 28/09/2025)</t>
         </is>
       </c>
     </row>
@@ -3079,133 +5221,94 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-15/09</t>
+22/09</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-16/09</t>
+23/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-17/09</t>
+24/09</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-18/09</t>
+25/09</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-19/09</t>
+26/09</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-20/09</t>
+27/09</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-21/09</t>
+28/09</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
 Lecturer: GV008</t>
         </is>
       </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH2
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="9" t="inlineStr">
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>MH001
 (Practice)
@@ -3213,61 +5316,107 @@
 Lecturer: GV001</t>
         </is>
       </c>
+      <c r="F9" s="7" t="inlineStr"/>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="7" t="inlineStr"/>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
@@ -3275,35 +5424,170 @@
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I12" s="8" t="inlineStr">
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3347,7 +5631,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 7 TIMETABLE (22/09/2025 - 28/09/2025)</t>
+          <t>WEEK 8 TIMETABLE (29/09/2025 - 05/10/2025)</t>
         </is>
       </c>
     </row>
@@ -3370,97 +5654,87 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-22/09</t>
+29/09</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-23/09</t>
+30/09</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-24/09</t>
+01/10</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-25/09</t>
+02/10</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-26/09</t>
+03/10</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-27/09</t>
+04/10</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-28/09</t>
+05/10</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D9" s="9" t="inlineStr">
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="10" t="inlineStr">
         <is>
           <t>MH001
 (Practice)
@@ -3468,22 +5742,28 @@
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -3492,44 +5772,260 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="G10" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="7" t="inlineStr"/>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="9" t="n"/>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="7" t="inlineStr"/>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="7" t="inlineStr"/>
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="7" t="inlineStr"/>
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G13" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="7" t="inlineStr"/>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="8" t="inlineStr">
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3573,7 +6069,7 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>WEEK 8 TIMETABLE (29/09/2025 - 05/10/2025)</t>
+          <t>WEEK 9 TIMETABLE (06/10/2025 - 12/10/2025)</t>
         </is>
       </c>
     </row>
@@ -3596,91 +6092,84 @@
       <c r="D7" s="5" t="inlineStr">
         <is>
           <t>Monday
-29/09</t>
+06/10</t>
         </is>
       </c>
       <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Tuesday
-30/09</t>
+07/10</t>
         </is>
       </c>
       <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Wednesday
-01/10</t>
+08/10</t>
         </is>
       </c>
       <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Thursday
-02/10</t>
+09/10</t>
         </is>
       </c>
       <c r="H7" s="5" t="inlineStr">
         <is>
           <t>Friday
-03/10</t>
+10/10</t>
         </is>
       </c>
       <c r="I7" s="5" t="inlineStr">
         <is>
           <t>Saturday
-04/10</t>
+11/10</t>
         </is>
       </c>
       <c r="J7" s="5" t="inlineStr">
         <is>
           <t>Sunday
-05/10</t>
+12/10</t>
         </is>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>C1</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="E8" s="7" t="inlineStr"/>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -3690,15 +6179,15 @@
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="7" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="inlineStr"/>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
@@ -3709,332 +6198,132 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT2
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="7" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH2
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>L1</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="inlineStr"/>
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I12" s="8" t="inlineStr">
+      <c r="H12" s="7" t="inlineStr"/>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
 Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13"/>
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14"/>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A3:J3"/>
     <mergeCell ref="A2:J2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="12" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="25" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
-    <col width="25" customWidth="1" min="10" max="10"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>CANTHO UNIVERSITY SOFTWARE CENTER</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>TRUNG TÂM PHẦN MỀM ĐẠI HỌC CẦN THƠ</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>Khu 3, Đại học Cần Thơ - 01 Lý Tự Trọng, TP Cần Thơ - Tel: 0292.3731072 &amp; Fax: 0292.3731071 - Email: cusc@ctu.edu.vn</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>WEEK 9 TIMETABLE (06/10/2025 - 12/10/2025)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="40" customHeight="1">
-      <c r="A7" s="5" t="inlineStr">
-        <is>
-          <t>Time Slot</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="C7" s="5" t="inlineStr">
-        <is>
-          <t>Students</t>
-        </is>
-      </c>
-      <c r="D7" s="5" t="inlineStr">
-        <is>
-          <t>Monday
-06/10</t>
-        </is>
-      </c>
-      <c r="E7" s="5" t="inlineStr">
-        <is>
-          <t>Tuesday
-07/10</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>Wednesday
-08/10</t>
-        </is>
-      </c>
-      <c r="G7" s="5" t="inlineStr">
-        <is>
-          <t>Thursday
-09/10</t>
-        </is>
-      </c>
-      <c r="H7" s="5" t="inlineStr">
-        <is>
-          <t>Friday
-10/10</t>
-        </is>
-      </c>
-      <c r="I7" s="5" t="inlineStr">
-        <is>
-          <t>Saturday
-11/10</t>
-        </is>
-      </c>
-      <c r="J7" s="5" t="inlineStr">
-        <is>
-          <t>Sunday
-12/10</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="60" customHeight="1">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7" t="inlineStr"/>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F8" s="9" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
-      <c r="J8" s="7" t="inlineStr"/>
-    </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="9" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: TH1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>L1</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="7" t="inlineStr"/>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11"/>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/timetabling_GA/results/PS_CT001_HK1/LichHocKy_PS_CT001_HK1.xlsx
+++ b/timetabling_GA/results/PS_CT001_HK1/LichHocKy_PS_CT001_HK1.xlsx
@@ -154,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -180,10 +180,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -549,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -677,9 +678,9 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -689,82 +690,75 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>MH009
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH001
 (Practice)
 Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="inlineStr"/>
+      <c r="E10" s="7" t="inlineStr"/>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>C2</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B11" s="7" t="inlineStr">
         <is>
           <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -776,24 +770,27 @@
       <c r="G11" s="7" t="inlineStr"/>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>MH001
+          <t>MH003
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
@@ -801,21 +798,28 @@
       </c>
       <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: A101
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -824,25 +828,32 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="7" t="inlineStr"/>
       <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="7" t="inlineStr"/>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: A101
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I13" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH3
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
@@ -853,31 +864,24 @@
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr">
         <is>
           <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr"/>
-      <c r="I14" s="8" t="inlineStr">
-        <is>
-          <t>MH009
 (Theory)
 Room: LT2
-Lecturer: GV003</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J14" s="7" t="inlineStr"/>
@@ -886,51 +890,25 @@
       <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="I15" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
@@ -938,16 +916,49 @@
 Lecturer: GV008</t>
         </is>
       </c>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="7" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I16" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J16" s="7" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="9" t="n"/>
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C17" s="7" t="n">
@@ -957,44 +968,171 @@
       <c r="E17" s="7" t="inlineStr"/>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-      <c r="I17" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH1
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J17" s="7" t="inlineStr"/>
     </row>
     <row r="18" ht="60" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A18" s="9" t="n"/>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C18" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="E18" s="7" t="inlineStr"/>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
+      <c r="H18" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT4
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="I19" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="7" t="inlineStr"/>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
@@ -1002,20 +1140,122 @@
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19"/>
+      <c r="I22" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="9" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7" t="inlineStr"/>
+      <c r="E25" s="7" t="inlineStr"/>
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J25" s="7" t="inlineStr"/>
+    </row>
+    <row r="26"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1027,7 +1267,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1155,23 +1395,19 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -1179,28 +1415,31 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -1208,74 +1447,67 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -1285,47 +1517,216 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1337,7 +1738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1465,23 +1866,19 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -1489,28 +1886,31 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -1518,74 +1918,67 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -1595,47 +1988,216 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1647,7 +2209,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1775,23 +2337,19 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -1799,28 +2357,31 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -1828,74 +2389,67 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -1905,47 +2459,216 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1957,7 +2680,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2085,23 +2808,19 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -2109,28 +2828,31 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -2138,74 +2860,67 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -2215,47 +2930,216 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2267,7 +3151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2395,23 +3279,19 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -2419,28 +3299,31 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -2448,74 +3331,67 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -2525,47 +3401,216 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2577,7 +3622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2705,23 +3750,19 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -2729,28 +3770,31 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -2758,74 +3802,67 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -2835,47 +3872,216 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2887,7 +4093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,9 +4221,9 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -3027,43 +4233,46 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
           <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -3071,31 +4280,28 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -3104,160 +4310,152 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
           <t>DH22IT</t>
         </is>
       </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="10" t="inlineStr">
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr">
         <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="11" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -3268,23 +4466,30 @@
       </c>
       <c r="D16" s="7" t="inlineStr"/>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
 Lecturer: GV008</t>
         </is>
       </c>
+      <c r="I16" s="7" t="inlineStr"/>
       <c r="J16" s="7" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -3295,18 +4500,18 @@
       <c r="C17" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D17" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="I17" s="7" t="inlineStr"/>
       <c r="J17" s="7" t="inlineStr"/>
     </row>
@@ -3314,46 +4519,286 @@
       <c r="A18" s="9" t="n"/>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C18" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
       <c r="H18" s="7" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G19" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19"/>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H20" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH3
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="I20" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="9" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="7" t="inlineStr"/>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7" t="inlineStr"/>
+      <c r="E25" s="7" t="inlineStr"/>
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I25" s="7" t="inlineStr"/>
+      <c r="J25" s="7" t="inlineStr"/>
+    </row>
+    <row r="26"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3365,7 +4810,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3493,9 +4938,9 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -3505,50 +4950,39 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
           <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -3557,23 +4991,27 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -3582,24 +5020,27 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -3608,32 +5049,32 @@
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="8" t="inlineStr">
         <is>
-          <t>MH002
-(Theory)
-Room: LT2
+          <t>MH009
+(Theory)
+Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="7" t="inlineStr"/>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -3644,107 +5085,89 @@
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
           <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="inlineStr"/>
       <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
-      <c r="I14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A15" s="11" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr">
         <is>
-          <t>MH009
+          <t>MH002
 (Practice)
 Room: TH3
-Lecturer: GV003</t>
+Lecturer: GV008</t>
         </is>
       </c>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
+      <c r="H15" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="I15" s="7" t="inlineStr"/>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B16" s="7" t="inlineStr">
@@ -3755,9 +5178,7 @@
       <c r="C16" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="8" t="inlineStr">
+      <c r="D16" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
@@ -3765,8 +5186,17 @@
 Lecturer: GV008</t>
         </is>
       </c>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
       <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="I16" s="7" t="inlineStr"/>
       <c r="J16" s="7" t="inlineStr"/>
     </row>
@@ -3774,25 +5204,241 @@
       <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C17" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D17" s="7" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-      <c r="I17" s="8" t="inlineStr">
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G18" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="7" t="inlineStr"/>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="9" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
@@ -3800,19 +5446,58 @@
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr"/>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="7" t="inlineStr"/>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3824,7 +5509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3945,23 +5630,16 @@
       <c r="C8" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
       <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -3971,43 +5649,39 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
           <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -4016,162 +5690,491 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="I12" s="7" t="inlineStr"/>
+      <c r="J12" s="7" t="inlineStr"/>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="11" t="n"/>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="inlineStr">
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
         <is>
           <t>DH22IT</t>
         </is>
       </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="10" t="inlineStr">
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="7" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>T1</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B20" s="7" t="inlineStr">
         <is>
           <t>DH22IT</t>
         </is>
       </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="9" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="7" t="inlineStr"/>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C25" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7" t="inlineStr"/>
+      <c r="E25" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
@@ -4179,66 +6182,32 @@
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17"/>
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I25" s="7" t="inlineStr"/>
+      <c r="J25" s="7" t="inlineStr"/>
+    </row>
+    <row r="26"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4250,7 +6219,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4373,21 +6342,14 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -4397,43 +6359,39 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
           <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -4442,23 +6400,27 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -4467,124 +6429,116 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
           <t>DH22IT</t>
         </is>
       </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="10" t="inlineStr">
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
@@ -4592,28 +6546,35 @@
       </c>
       <c r="D15" s="8" t="inlineStr">
         <is>
-          <t>MH002
+          <t>MH001
 (Theory)
 Room: LT4
-Lecturer: GV008</t>
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr">
         <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="11" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -4624,23 +6585,30 @@
       </c>
       <c r="D16" s="7" t="inlineStr"/>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr"/>
       <c r="J16" s="7" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
@@ -4651,7 +6619,8 @@
       <c r="C17" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D17" s="8" t="inlineStr">
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="8" t="inlineStr">
         <is>
           <t>MH002
 (Theory)
@@ -4659,10 +6628,16 @@
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="E17" s="7" t="inlineStr"/>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="I17" s="7" t="inlineStr"/>
       <c r="J17" s="7" t="inlineStr"/>
     </row>
@@ -4670,46 +6645,261 @@
       <c r="A18" s="9" t="n"/>
       <c r="B18" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C18" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="F18" s="7" t="inlineStr"/>
       <c r="G18" s="7" t="inlineStr"/>
       <c r="H18" s="7" t="inlineStr"/>
-      <c r="I18" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G19" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J18" s="7" t="inlineStr"/>
-    </row>
-    <row r="19"/>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT1
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="7" t="inlineStr"/>
+      <c r="I24" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25"/>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4721,7 +6911,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4844,48 +7034,41 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="F8" s="7" t="inlineStr"/>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
-      <c r="I8" s="7" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="H9" s="7" t="inlineStr"/>
       <c r="I9" s="8" t="inlineStr">
         <is>
           <t>MH002
@@ -4897,14 +7080,10 @@
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -4913,23 +7092,27 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
@@ -4938,211 +7121,488 @@
       <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="7" t="inlineStr"/>
+      <c r="F12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
           <t>DH22IT</t>
         </is>
       </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="10" t="inlineStr">
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
-      <c r="I14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr">
         <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
       <c r="I15" s="8" t="inlineStr">
         <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G19" s="10" t="inlineStr">
+        <is>
           <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="I20" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="7" t="inlineStr"/>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F22" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
         <is>
           <t>T2</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="9" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="7" t="inlineStr"/>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25" ht="60" customHeight="1">
+      <c r="A25" s="11" t="n"/>
+      <c r="B25" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C16" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
+      <c r="C25" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D25" s="7" t="inlineStr"/>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="F25" s="7" t="inlineStr"/>
+      <c r="G25" s="7" t="inlineStr"/>
+      <c r="H25" s="7" t="inlineStr"/>
+      <c r="I25" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17"/>
+      <c r="J25" s="7" t="inlineStr"/>
+    </row>
+    <row r="26"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A25"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5154,7 +7614,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5277,21 +7737,21 @@
       </c>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
+      <c r="F8" s="7" t="inlineStr"/>
+      <c r="G8" s="7" t="inlineStr"/>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr"/>
-      <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -5301,43 +7761,46 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
           <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -5346,90 +7809,90 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
+      <c r="G10" s="7" t="inlineStr"/>
+      <c r="H10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="J10" s="7" t="inlineStr"/>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C11" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7" t="inlineStr"/>
+      <c r="E11" s="7" t="inlineStr"/>
+      <c r="F11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
-      <c r="J10" s="7" t="inlineStr"/>
-    </row>
-    <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="J11" s="7" t="inlineStr"/>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="11" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D11" s="7" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH002
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH009
 (Theory)
 Room: LT3
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH001
+      <c r="F12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
 (Theory)
 Room: LT1
 Lecturer: GV001</t>
         </is>
       </c>
-      <c r="I11" s="7" t="inlineStr"/>
-      <c r="J11" s="7" t="inlineStr"/>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
-      <c r="I12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
@@ -5444,42 +7907,220 @@
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="10" t="inlineStr">
-        <is>
           <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="I13" s="7" t="inlineStr"/>
       <c r="J13" s="7" t="inlineStr"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="11" t="n"/>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
           <t>DH23CS</t>
         </is>
       </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A101
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="7" t="inlineStr"/>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="7" t="inlineStr"/>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G18" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="7" t="inlineStr"/>
+      <c r="G19" s="8" t="inlineStr">
         <is>
           <t>MH009
 (Theory)
@@ -5487,95 +8128,162 @@
 Lecturer: GV003</t>
         </is>
       </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="7" t="inlineStr"/>
-      <c r="H14" s="7" t="inlineStr"/>
-      <c r="I14" s="7" t="inlineStr"/>
-      <c r="J14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="9" t="n"/>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="7" t="inlineStr"/>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="11" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G21" s="7" t="inlineStr"/>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I21" s="7" t="inlineStr"/>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="inlineStr">
         <is>
           <t>DH22IT</t>
         </is>
       </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr"/>
-      <c r="F15" s="10" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
-      <c r="J15" s="7" t="inlineStr"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D16" s="7" t="inlineStr"/>
-      <c r="E16" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr"/>
-      <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr"/>
-    </row>
-    <row r="17"/>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E22" s="7" t="inlineStr"/>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="11" t="n"/>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="7" t="inlineStr"/>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="7" t="inlineStr"/>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24"/>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -5587,7 +8295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5715,9 +8423,9 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
@@ -5727,43 +8435,39 @@
       <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D9" s="7" t="inlineStr"/>
+      <c r="E9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="G9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="J9" s="7" t="inlineStr"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="11" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
           <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" s="7" t="inlineStr"/>
-      <c r="E9" s="10" t="inlineStr">
-        <is>
-          <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="10" t="inlineStr">
-        <is>
-          <t>MH009
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
-      <c r="J9" s="7" t="inlineStr"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH22IT</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -5772,178 +8476,174 @@
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
       <c r="F10" s="7" t="inlineStr"/>
-      <c r="G10" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
-      <c r="I10" s="7" t="inlineStr"/>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="inlineStr"/>
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H11" s="7" t="inlineStr"/>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH1
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S1</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="10" t="inlineStr">
-        <is>
-          <t>MH002
-(Practice)
-Room: TH3
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="D12" s="7" t="inlineStr"/>
       <c r="E12" s="7" t="inlineStr"/>
       <c r="F12" s="7" t="inlineStr"/>
-      <c r="G12" s="7" t="inlineStr"/>
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT4
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="H12" s="7" t="inlineStr"/>
       <c r="I12" s="7" t="inlineStr"/>
       <c r="J12" s="7" t="inlineStr"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A13" s="11" t="n"/>
       <c r="B13" s="7" t="inlineStr">
         <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7" t="inlineStr"/>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr"/>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
           <t>DH22IT</t>
         </is>
       </c>
-      <c r="C13" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="7" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="G13" s="10" t="inlineStr">
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>MH001
-(Practice)
-Room: TH2
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="9" t="n"/>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr"/>
-      <c r="F14" s="7" t="inlineStr"/>
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="inlineStr"/>
       <c r="H14" s="7" t="inlineStr"/>
       <c r="I14" s="7" t="inlineStr"/>
       <c r="J14" s="7" t="inlineStr"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D15" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="10" t="inlineStr">
         <is>
-          <t>MH009
-(Practice)
-Room: TH3
-Lecturer: GV003</t>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
         </is>
       </c>
       <c r="G15" s="7" t="inlineStr"/>
       <c r="H15" s="7" t="inlineStr"/>
-      <c r="I15" s="7" t="inlineStr"/>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="J15" s="7" t="inlineStr"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="11" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
           <t>DH23CS</t>
@@ -5954,66 +8654,307 @@
       </c>
       <c r="D16" s="7" t="inlineStr"/>
       <c r="E16" s="7" t="inlineStr"/>
-      <c r="F16" s="7" t="inlineStr"/>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="G16" s="7" t="inlineStr"/>
-      <c r="H16" s="7" t="inlineStr"/>
-      <c r="I16" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="H16" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="I16" s="7" t="inlineStr"/>
       <c r="J16" s="7" t="inlineStr"/>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C17" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D17" s="7" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
+      <c r="E17" s="7" t="inlineStr"/>
       <c r="F17" s="7" t="inlineStr"/>
       <c r="G17" s="7" t="inlineStr"/>
-      <c r="H17" s="7" t="inlineStr"/>
-      <c r="I17" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV008</t>
         </is>
       </c>
+      <c r="I17" s="7" t="inlineStr"/>
       <c r="J17" s="7" t="inlineStr"/>
     </row>
-    <row r="18"/>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>MH002
+(Practice)
+Room: TH3
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="7" t="inlineStr"/>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="7" t="inlineStr"/>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr"/>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G19" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH2
+Lecturer: GV002</t>
+        </is>
+      </c>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C20" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>MH009
+(Practice)
+Room: TH2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E20" s="7" t="inlineStr"/>
+      <c r="F20" s="7" t="inlineStr"/>
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H20" s="7" t="inlineStr"/>
+      <c r="I20" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J20" s="7" t="inlineStr"/>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="9" t="n"/>
+      <c r="B21" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C21" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D21" s="7" t="inlineStr"/>
+      <c r="E21" s="7" t="inlineStr"/>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H21" s="7" t="inlineStr"/>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J21" s="7" t="inlineStr"/>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="11" t="n"/>
+      <c r="B22" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C22" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D22" s="7" t="inlineStr"/>
+      <c r="E22" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F22" s="7" t="inlineStr"/>
+      <c r="G22" s="7" t="inlineStr"/>
+      <c r="H22" s="7" t="inlineStr"/>
+      <c r="I22" s="7" t="inlineStr"/>
+      <c r="J22" s="7" t="inlineStr"/>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C23" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>MH001
+(Practice)
+Room: TH1
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr"/>
+      <c r="F23" s="7" t="inlineStr"/>
+      <c r="G23" s="7" t="inlineStr"/>
+      <c r="H23" s="7" t="inlineStr"/>
+      <c r="I23" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J23" s="7" t="inlineStr"/>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="11" t="n"/>
+      <c r="B24" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C24" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D24" s="7" t="inlineStr"/>
+      <c r="E24" s="7" t="inlineStr"/>
+      <c r="F24" s="10" t="inlineStr">
+        <is>
+          <t>MH003
+(Practice)
+Room: TH2
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G24" s="7" t="inlineStr"/>
+      <c r="H24" s="7" t="inlineStr"/>
+      <c r="I24" s="7" t="inlineStr"/>
+      <c r="J24" s="7" t="inlineStr"/>
+    </row>
+    <row r="25"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A23:A24"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6025,7 +8966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6153,23 +9094,19 @@
       <c r="H8" s="7" t="inlineStr"/>
       <c r="I8" s="8" t="inlineStr">
         <is>
-          <t>MH001
-(Theory)
-Room: LT3
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV001</t>
         </is>
       </c>
       <c r="J8" s="7" t="inlineStr"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH23AI</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
@@ -6177,28 +9114,31 @@
       </c>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
-      <c r="F9" s="7" t="inlineStr"/>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr">
-        <is>
-          <t>MH001
-(Theory)
-Room: LT1
-Lecturer: GV001</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr"/>
+      <c r="H9" s="7" t="inlineStr"/>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: LT3
+Lecturer: GV008</t>
+        </is>
+      </c>
       <c r="J9" s="7" t="inlineStr"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A10" s="11" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
@@ -6206,74 +9146,67 @@
       </c>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT2
-Lecturer: GV001</t>
-        </is>
-      </c>
+      <c r="F10" s="7" t="inlineStr"/>
       <c r="G10" s="7" t="inlineStr"/>
       <c r="H10" s="7" t="inlineStr"/>
       <c r="I10" s="8" t="inlineStr">
         <is>
-          <t>MH009
-(Theory)
-Room: LT2
-Lecturer: GV003</t>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
         </is>
       </c>
       <c r="J10" s="7" t="inlineStr"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D11" s="8" t="inlineStr">
-        <is>
-          <t>MH009
-(Theory)
-Room: LT1
-Lecturer: GV003</t>
-        </is>
-      </c>
+      <c r="D11" s="7" t="inlineStr"/>
       <c r="E11" s="7" t="inlineStr"/>
       <c r="F11" s="7" t="inlineStr"/>
-      <c r="G11" s="7" t="inlineStr"/>
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="H11" s="7" t="inlineStr"/>
       <c r="I11" s="7" t="inlineStr"/>
       <c r="J11" s="7" t="inlineStr"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A12" s="11" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH22IT</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT4
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr"/>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT3
+Lecturer: GV001</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="inlineStr"/>
       <c r="G12" s="7" t="inlineStr"/>
       <c r="H12" s="7" t="inlineStr"/>
@@ -6283,47 +9216,216 @@
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="6" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>DH22IT</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
         <v>30</v>
       </c>
       <c r="D13" s="7" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT1
-Lecturer: GV008</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr"/>
+      <c r="E13" s="7" t="inlineStr"/>
+      <c r="F13" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: A101
+Lecturer: GV002</t>
+        </is>
+      </c>
       <c r="G13" s="7" t="inlineStr"/>
       <c r="H13" s="7" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr">
-        <is>
-          <t>MH002
-(Theory)
-Room: LT3
+      <c r="I13" s="7" t="inlineStr"/>
+      <c r="J13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="11" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C14" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="inlineStr"/>
+      <c r="E14" s="7" t="inlineStr"/>
+      <c r="F14" s="7" t="inlineStr"/>
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="J14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C15" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" s="7" t="inlineStr"/>
+      <c r="E15" s="7" t="inlineStr"/>
+      <c r="F15" s="7" t="inlineStr"/>
+      <c r="G15" s="7" t="inlineStr"/>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
 Lecturer: GV008</t>
         </is>
       </c>
-      <c r="J13" s="7" t="inlineStr"/>
-    </row>
-    <row r="14"/>
+      <c r="I15" s="7" t="inlineStr"/>
+      <c r="J15" s="7" t="inlineStr"/>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="11" t="n"/>
+      <c r="B16" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D16" s="7" t="inlineStr"/>
+      <c r="E16" s="7" t="inlineStr"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A102
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="G16" s="7" t="inlineStr"/>
+      <c r="H16" s="7" t="inlineStr"/>
+      <c r="I16" s="7" t="inlineStr"/>
+      <c r="J16" s="7" t="inlineStr"/>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>DH22IT</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" s="7" t="inlineStr"/>
+      <c r="E17" s="7" t="inlineStr"/>
+      <c r="F17" s="7" t="inlineStr"/>
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>MH009
+(Theory)
+Room: LT1
+Lecturer: GV003</t>
+        </is>
+      </c>
+      <c r="H17" s="7" t="inlineStr"/>
+      <c r="I17" s="7" t="inlineStr"/>
+      <c r="J17" s="7" t="inlineStr"/>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="9" t="n"/>
+      <c r="B18" s="7" t="inlineStr">
+        <is>
+          <t>DH23AI</t>
+        </is>
+      </c>
+      <c r="C18" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D18" s="7" t="inlineStr"/>
+      <c r="E18" s="7" t="inlineStr"/>
+      <c r="F18" s="7" t="inlineStr"/>
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>MH001
+(Theory)
+Room: LT2
+Lecturer: GV001</t>
+        </is>
+      </c>
+      <c r="H18" s="7" t="inlineStr"/>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: LT1
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="J18" s="7" t="inlineStr"/>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="11" t="n"/>
+      <c r="B19" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C19" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D19" s="7" t="inlineStr"/>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>MH002
+(Theory)
+Room: A101
+Lecturer: GV008</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>MH003
+(Theory)
+Room: A102
+Lecturer: GV007</t>
+        </is>
+      </c>
+      <c r="G19" s="7" t="inlineStr"/>
+      <c r="H19" s="7" t="inlineStr"/>
+      <c r="I19" s="7" t="inlineStr"/>
+      <c r="J19" s="7" t="inlineStr"/>
+    </row>
+    <row r="20"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A19"/>
     <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
